--- a/data/trans_orig/P14A16-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A16-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61722867-6A43-49A9-BCB4-40755298E96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{104552D8-5140-4F58-8211-1645911891FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{80B43C49-5279-4183-91D4-86AFCE577BEF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F25EDFB-D3D6-416C-9A53-6EC1CFC64672}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
   <si>
     <t>Población que recibe medicación o terapia por alergias crónicas en 2012 (Tasa respuesta: 6,22%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>77,03%</t>
   </si>
   <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
   </si>
   <si>
     <t>78,44%</t>
   </si>
   <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
   </si>
   <si>
     <t>77,96%</t>
   </si>
   <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>22,97%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
   </si>
   <si>
     <t>21,56%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>66,82%</t>
   </si>
   <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
   </si>
   <si>
     <t>79,81%</t>
   </si>
   <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
   </si>
   <si>
     <t>74,28%</t>
   </si>
   <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
   </si>
   <si>
     <t>33,18%</t>
   </si>
   <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
   </si>
   <si>
     <t>20,19%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,19 +195,19 @@
     <t>85,72%</t>
   </si>
   <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>69,17%</t>
   </si>
   <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
   </si>
   <si>
     <t>76,05%</t>
@@ -216,31 +216,31 @@
     <t>64,9%</t>
   </si>
   <si>
-    <t>85,0%</t>
+    <t>84,25%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
   </si>
   <si>
     <t>30,83%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
   </si>
   <si>
     <t>23,95%</t>
   </si>
   <si>
-    <t>15,0%</t>
+    <t>15,75%</t>
   </si>
   <si>
     <t>35,1%</t>
@@ -249,55 +249,49 @@
     <t>72,32%</t>
   </si>
   <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
   </si>
   <si>
     <t>77,6%</t>
   </si>
   <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
   <si>
     <t>75,47%</t>
   </si>
   <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
+    <t>71,29%</t>
   </si>
   <si>
     <t>27,68%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
   </si>
   <si>
     <t>22,4%</t>
   </si>
   <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
   </si>
   <si>
     <t>24,53%</t>
   </si>
   <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>28,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -309,217 +303,217 @@
     <t>75,75%</t>
   </si>
   <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>79,56%</t>
   </si>
   <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>78,58%</t>
   </si>
   <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
   </si>
   <si>
     <t>21,42%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
   </si>
   <si>
     <t>66,77%</t>
   </si>
   <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
   </si>
   <si>
     <t>73,45%</t>
   </si>
   <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
   </si>
   <si>
     <t>70,95%</t>
   </si>
   <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
   </si>
   <si>
     <t>33,23%</t>
   </si>
   <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
   </si>
   <si>
     <t>26,55%</t>
   </si>
   <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
   </si>
   <si>
     <t>80,63%</t>
   </si>
   <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
   </si>
   <si>
     <t>69,64%</t>
   </si>
   <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
   </si>
   <si>
     <t>19,37%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
   </si>
   <si>
     <t>30,36%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
   </si>
   <si>
     <t>73,72%</t>
   </si>
   <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
   </si>
   <si>
     <t>72,92%</t>
   </si>
   <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
   </si>
   <si>
     <t>28,41%</t>
   </si>
   <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
   </si>
   <si>
     <t>27,08%</t>
   </si>
   <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19069A18-660F-452B-9A0D-8A95B0FF7165}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A2CD05-6FF3-4FB2-BAFD-D5444886E193}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1556,7 +1550,7 @@
         <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1571,13 +1565,13 @@
         <v>48651</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -1586,13 +1580,13 @@
         <v>57833</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>101</v>
@@ -1601,13 +1595,13 @@
         <v>106484</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1663,7 +1657,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1682,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DD7D77-ECE0-4452-9BF2-B7C6B6A12BFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFCAAB4-23F4-421B-BACF-19A7D7C3D02B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1699,7 +1693,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1806,13 +1800,13 @@
         <v>13161</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -1821,13 +1815,13 @@
         <v>39589</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -1836,13 +1830,13 @@
         <v>52750</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,13 +1851,13 @@
         <v>4212</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -1872,13 +1866,13 @@
         <v>10170</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -1887,13 +1881,13 @@
         <v>14382</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,13 +1955,13 @@
         <v>68883</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>121</v>
@@ -1976,13 +1970,13 @@
         <v>126361</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>187</v>
@@ -1991,13 +1985,13 @@
         <v>195244</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,13 +2006,13 @@
         <v>34274</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
@@ -2027,13 +2021,13 @@
         <v>45681</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>78</v>
@@ -2042,13 +2036,13 @@
         <v>79955</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2110,13 @@
         <v>37846</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -2131,13 +2125,13 @@
         <v>41621</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -2146,13 +2140,13 @@
         <v>79467</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2161,13 @@
         <v>9094</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -2182,13 +2176,13 @@
         <v>18148</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -2197,13 +2191,13 @@
         <v>27242</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,13 +2265,13 @@
         <v>119888</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>195</v>
@@ -2286,13 +2280,13 @@
         <v>207572</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>309</v>
@@ -2301,13 +2295,13 @@
         <v>327460</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2316,13 @@
         <v>47581</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>71</v>
@@ -2337,13 +2331,13 @@
         <v>73999</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>117</v>
@@ -2352,13 +2346,13 @@
         <v>121580</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,7 +2408,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A16-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A16-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{104552D8-5140-4F58-8211-1645911891FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90AB14A8-045C-4007-A860-51F6083F9DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F25EDFB-D3D6-416C-9A53-6EC1CFC64672}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30C27C15-C838-4AE2-B26A-34E51110FAF7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,445 +75,445 @@
     <t>77,03%</t>
   </si>
   <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>78,44%</t>
   </si>
   <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por alergias crónicas en 2016 (Tasa respuesta: 6,49%)</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
     <t>66,23%</t>
   </si>
   <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
   </si>
   <si>
     <t>33,77%</t>
   </si>
   <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por alergias crónicas en 2015 (Tasa respuesta: 6,49%)</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
     <t>29,05%</t>
   </si>
   <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
   </si>
   <si>
     <t>80,63%</t>
   </si>
   <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
   </si>
   <si>
     <t>69,64%</t>
   </si>
   <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
   </si>
   <si>
     <t>19,37%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
   </si>
   <si>
     <t>30,36%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>73,72%</t>
   </si>
   <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
   </si>
   <si>
     <t>72,92%</t>
   </si>
   <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
   </si>
   <si>
     <t>28,41%</t>
   </si>
   <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>27,08%</t>
   </si>
   <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
   </si>
 </sst>
 </file>
@@ -925,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A2CD05-6FF3-4FB2-BAFD-D5444886E193}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7BA126-BB88-4BC9-900F-D9CD3FD900DD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1550,7 +1550,7 @@
         <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1598,7 +1598,7 @@
         <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>84</v>
@@ -1676,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFCAAB4-23F4-421B-BACF-19A7D7C3D02B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7441E76C-0362-4D2D-A106-13E4142ED8D9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
